--- a/ucinet/0320 作業/黑獸公會成員友好度調查 (回覆).xlsx
+++ b/ucinet/0320 作業/黑獸公會成員友好度調查 (回覆).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\ucinet\0320 作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\user\Desktop\Social-Network-Analysis\ucinet\0320 作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF7E5BC-FD92-420B-8A54-CD79F3830603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6707F9-FDB1-4CDC-A8AB-0F019A058FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E8C30C6A-7FC8-448C-A290-72627D71B1E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E8C30C6A-7FC8-448C-A290-72627D71B1E4}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>你喜歡跟誰合作？</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>DM</t>
   </si>
@@ -454,189 +448,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96A1745-9779-4430-A51A-98AAC367FA86}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
